--- a/crossIndustrySafetyClimate.xlsx
+++ b/crossIndustrySafetyClimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrosen44/Documents/data_analysis_local/narrativeClimate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA3F39A-25EC-C542-84D2-29793D196861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C034EF-5797-0A4F-955D-E16D2EB6CA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="1760" windowWidth="22600" windowHeight="12540" xr2:uid="{0DC54F12-263D-CC42-8499-17A88CDE699B}"/>
+    <workbookView xWindow="25680" yWindow="7700" windowWidth="22600" windowHeight="12540" activeTab="1" xr2:uid="{0DC54F12-263D-CC42-8499-17A88CDE699B}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="79">
   <si>
     <t>domain</t>
   </si>
@@ -355,6 +355,35 @@
   </si>
   <si>
     <t>TPS</t>
+  </si>
+  <si>
+    <t>We regularly take time to figure out ways to improve our team's work processes.</t>
+  </si>
+  <si>
+    <t>This team tends to handle differences of opinion privately or off-line, rather than
+addressing them directly as a group.</t>
+  </si>
+  <si>
+    <t>Team members go out and get all the information they possibly can from others-such
+as customers, or other parts of the organization.</t>
+  </si>
+  <si>
+    <t>This team frequently seeks new information that leads us to make important changes.</t>
+  </si>
+  <si>
+    <t>In this team, someone always makes sure that we stop to reflect on the team's workprocess.</t>
+  </si>
+  <si>
+    <t>People in this team often speak up to test assumptions about issues under discussion.</t>
+  </si>
+  <si>
+    <t>We invite people from outside the team to present informationor have discussions with us.</t>
+  </si>
+  <si>
+    <t>Team learning behavior</t>
+  </si>
+  <si>
+    <t>TLB</t>
   </si>
 </sst>
 </file>
@@ -753,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29463F21-A4F0-0745-847C-985F0F65DE03}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1755,6 +1784,188 @@
         <v>66</v>
       </c>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1762,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E894D-21EC-FF40-874D-A89B50C2E33C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1798,11 +2009,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
